--- a/documentation/Project Report.xlsx
+++ b/documentation/Project Report.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
-  <si>
-    <t>Hire Me Project Report</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>Frontend</t>
   </si>
@@ -68,12 +65,18 @@
     <t>All partner list page</t>
   </si>
   <si>
+    <t>Completed</t>
+  </si>
+  <si>
     <t>Payment portal</t>
   </si>
   <si>
     <t>Employee details update</t>
   </si>
   <si>
+    <t>Pending</t>
+  </si>
+  <si>
     <t>Backend</t>
   </si>
   <si>
@@ -99,13 +102,47 @@
   </si>
   <si>
     <t>Employee login api</t>
+  </si>
+  <si>
+    <t>Fetch all partner list api</t>
+  </si>
+  <si>
+    <t>Completion</t>
+  </si>
+  <si>
+    <t>Employee details update api</t>
+  </si>
+  <si>
+    <t>Fetch partner details api</t>
+  </si>
+  <si>
+    <t>Employee performance analysis</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hire Me Project Report </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>By Atanu Ghosh</t>
+    </r>
+  </si>
+  <si>
+    <t>Employee list fetch api</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,8 +151,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -130,40 +189,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="16"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="14"/>
       <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -175,16 +202,136 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -192,46 +339,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment textRotation="255"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment textRotation="255"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -248,6 +435,1813 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Frontend</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-57C0-4E98-9886-1CA190EDE77E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-57C0-4E98-9886-1CA190EDE77E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="95000"/>
+                      <a:alpha val="54000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$E$19:$F$20</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="2"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Completed</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Pending</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Frontend</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$21:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-57C0-4E98-9886-1CA190EDE77E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Backend</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-88B2-4499-9722-36441D03B272}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-88B2-4499-9722-36441D03B272}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="95000"/>
+                      <a:alpha val="54000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$I$19:$J$20</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="2"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Completed</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Pending</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Backend</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$21:$J$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-88B2-4499-9722-36441D03B272}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="257">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="257">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>40821</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2435679</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>92528</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>251732</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>234043</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2238375</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -513,166 +2507,288 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:N10"/>
+  <dimension ref="D1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" customWidth="1"/>
-    <col min="7" max="7" width="30.5703125" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" customWidth="1"/>
-    <col min="9" max="9" width="28.5703125" customWidth="1"/>
-    <col min="10" max="10" width="38.85546875" customWidth="1"/>
-    <col min="11" max="11" width="33.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="34.28515625" customWidth="1"/>
+    <col min="6" max="6" width="38.85546875" customWidth="1"/>
+    <col min="7" max="7" width="38.5703125" customWidth="1"/>
+    <col min="8" max="8" width="6" customWidth="1"/>
+    <col min="9" max="9" width="38.7109375" customWidth="1"/>
+    <col min="10" max="10" width="42.140625" customWidth="1"/>
+    <col min="11" max="11" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:14" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E1" s="2" t="s">
+    <row r="1" spans="4:14" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="E1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="4:14" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="E2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
     </row>
-    <row r="2" spans="4:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="E2" s="3" t="s">
+    <row r="3" spans="4:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="D3" s="3"/>
+      <c r="E3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
+      <c r="F3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="4:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D3" s="13"/>
-      <c r="E3" s="5" t="s">
+    <row r="4" spans="4:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>10</v>
+      <c r="H4" s="5"/>
+      <c r="I4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="4:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="12"/>
-      <c r="E4" s="4" t="s">
+    <row r="5" spans="4:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D5" s="20"/>
+      <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>18</v>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="5" spans="4:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D5" s="12"/>
-      <c r="E5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="4:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D6" s="12"/>
+    <row r="6" spans="4:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D6" s="20"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="7" spans="4:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D7" s="12"/>
+    <row r="7" spans="4:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D7" s="20"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7" s="4"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="8" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D8" s="12"/>
+    <row r="8" spans="4:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D8" s="6"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="4:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D9" s="11"/>
-      <c r="F9" s="6" t="s">
+    <row r="9" spans="4:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D9" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="11" t="s">
-        <v>23</v>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="10" spans="4:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D10" s="1"/>
-      <c r="F10" s="6" t="s">
+    <row r="10" spans="4:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D10" s="21"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="11" t="s">
-        <v>24</v>
-      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="4:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J11" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="4:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J12" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="4:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J13" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="4:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="E15" s="10"/>
+    </row>
+    <row r="18" spans="5:10" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="E18" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+    </row>
+    <row r="19" spans="5:10" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="E19" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="22"/>
+    </row>
+    <row r="20" spans="5:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="E20" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="5:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="E21" s="16">
+        <v>80</v>
+      </c>
+      <c r="F21" s="17">
+        <v>20</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="16">
+        <v>40</v>
+      </c>
+      <c r="J21" s="17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="5:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="8">
     <mergeCell ref="E1:K1"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="E18:J18"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="I2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>